--- a/data/trans_orig/P36BPD13_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD13_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>417927</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>398854</v>
+        <v>397057</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>435810</v>
+        <v>433647</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8432755678503747</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8047919732539989</v>
+        <v>0.8011666281676207</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8793592104002046</v>
+        <v>0.8749960567313138</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>727</v>
@@ -762,19 +762,19 @@
         <v>522894</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>505815</v>
+        <v>506095</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>538704</v>
+        <v>537414</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8409264201152803</v>
+        <v>0.8409264201152802</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8134592463166359</v>
+        <v>0.8139098113907367</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8663520636670632</v>
+        <v>0.8642773363451566</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1113</v>
@@ -783,19 +783,19 @@
         <v>940820</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>918389</v>
+        <v>915678</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>964241</v>
+        <v>963837</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8419683288280116</v>
+        <v>0.8419683288280115</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8218933087050706</v>
+        <v>0.8194677825921846</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8629278072540449</v>
+        <v>0.8625664389973788</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>77672</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>59789</v>
+        <v>61952</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>96745</v>
+        <v>98542</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1567244321496253</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1206407895997954</v>
+        <v>0.1250039432686862</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1952080267460011</v>
+        <v>0.1988333718323791</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>131</v>
@@ -833,19 +833,19 @@
         <v>98913</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>83103</v>
+        <v>84393</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>115992</v>
+        <v>115712</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1590735798847197</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1336479363329366</v>
+        <v>0.1357226636548434</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.186540753683364</v>
+        <v>0.186090188609263</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>197</v>
@@ -854,19 +854,19 @@
         <v>176586</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>153165</v>
+        <v>153569</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>199017</v>
+        <v>201728</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1580316711719884</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1370721927459551</v>
+        <v>0.1374335610026212</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1781066912949293</v>
+        <v>0.1805322174078154</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>812784</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>783064</v>
+        <v>785376</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>836076</v>
+        <v>836062</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8518801159466681</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8207302721875454</v>
+        <v>0.8231542540341968</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8762924297744584</v>
+        <v>0.8762778420997092</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1420</v>
@@ -979,19 +979,19 @@
         <v>974943</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>953315</v>
+        <v>955248</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>992060</v>
+        <v>994037</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8800618675403116</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8605382248398501</v>
+        <v>0.8622835447267064</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.89551286783536</v>
+        <v>0.8972971352153798</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2206</v>
@@ -1000,19 +1000,19 @@
         <v>1787727</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1752680</v>
+        <v>1753419</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1815894</v>
+        <v>1817615</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8670214005847715</v>
+        <v>0.8670214005847714</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8500240623735609</v>
+        <v>0.8503825350645307</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8806818069196515</v>
+        <v>0.881516783946221</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>141322</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>118030</v>
+        <v>118044</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>171042</v>
+        <v>168730</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1481198840533319</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1237075702255415</v>
+        <v>0.1237221579002907</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1792697278124545</v>
+        <v>0.176845745965803</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>175</v>
@@ -1050,19 +1050,19 @@
         <v>132869</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>115752</v>
+        <v>113775</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>154497</v>
+        <v>152564</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1199381324596884</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1044871321646396</v>
+        <v>0.1027028647846204</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1394617751601497</v>
+        <v>0.1377164552732937</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>293</v>
@@ -1071,19 +1071,19 @@
         <v>274191</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>246024</v>
+        <v>244303</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>309238</v>
+        <v>308499</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1329785994152285</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1193181930803486</v>
+        <v>0.1184832160537789</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1499759376264393</v>
+        <v>0.1496174649354697</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>882699</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>856851</v>
+        <v>853510</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>909391</v>
+        <v>908222</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8487610232501234</v>
+        <v>0.8487610232501235</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.82390674614675</v>
+        <v>0.8206948624339528</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8744265560455099</v>
+        <v>0.8733029126014389</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1376</v>
@@ -1196,19 +1196,19 @@
         <v>939635</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>921418</v>
+        <v>922458</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>956224</v>
+        <v>957325</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9031269208509942</v>
+        <v>0.903126920850994</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8856175280648392</v>
+        <v>0.8866169092162783</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9190715611097927</v>
+        <v>0.9201299855851712</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2261</v>
@@ -1217,19 +1217,19 @@
         <v>1822334</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1787194</v>
+        <v>1790168</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1852841</v>
+        <v>1852018</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8759497011298614</v>
+        <v>0.8759497011298615</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8590588823342481</v>
+        <v>0.8604882651849985</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8906136970267663</v>
+        <v>0.8902180624637382</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>157286</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>130594</v>
+        <v>131763</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>183134</v>
+        <v>186475</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1512389767498765</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1255734439544901</v>
+        <v>0.1266970873985611</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.17609325385325</v>
+        <v>0.1793051375660471</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>131</v>
@@ -1267,19 +1267,19 @@
         <v>100789</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>84200</v>
+        <v>83099</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>119006</v>
+        <v>117966</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.09687307914900588</v>
+        <v>0.09687307914900586</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08092843889020726</v>
+        <v>0.07987001441482872</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1143824719351607</v>
+        <v>0.1133830907837215</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>268</v>
@@ -1288,19 +1288,19 @@
         <v>258075</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>227568</v>
+        <v>228391</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>293215</v>
+        <v>290241</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1240502988701385</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1093863029732338</v>
+        <v>0.1097819375362611</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1409411176657519</v>
+        <v>0.1395117348150015</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>813811</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>782436</v>
+        <v>786734</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>838821</v>
+        <v>839275</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8377462031505217</v>
+        <v>0.8377462031505216</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8054484717103068</v>
+        <v>0.8098726913123242</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8634920677952423</v>
+        <v>0.8639593208343932</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1154</v>
@@ -1413,19 +1413,19 @@
         <v>780135</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>759197</v>
+        <v>758915</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>798357</v>
+        <v>797393</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.8711374752905376</v>
+        <v>0.8711374752905374</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.847756957820516</v>
+        <v>0.8474421635370109</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8914846046916793</v>
+        <v>0.8904085485753443</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1956</v>
@@ -1434,19 +1434,19 @@
         <v>1593947</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1558025</v>
+        <v>1560784</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1625044</v>
+        <v>1625285</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.8537631549606509</v>
+        <v>0.8537631549606506</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.834522567734297</v>
+        <v>0.8360000858456933</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8704197473473262</v>
+        <v>0.8705487587158812</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>157618</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>132608</v>
+        <v>132154</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>188993</v>
+        <v>184695</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1622537968494783</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1365079322047577</v>
+        <v>0.1360406791656068</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1945515282896932</v>
+        <v>0.1901273086876759</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>153</v>
@@ -1484,19 +1484,19 @@
         <v>115401</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>97179</v>
+        <v>98143</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>136339</v>
+        <v>136621</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1288625247094625</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1085153953083207</v>
+        <v>0.1095914514246558</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1522430421794841</v>
+        <v>0.1525578364629891</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>292</v>
@@ -1505,19 +1505,19 @@
         <v>273019</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>241922</v>
+        <v>241681</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>308941</v>
+        <v>306182</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1462368450393492</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1295802526526738</v>
+        <v>0.1294512412841191</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.165477432265703</v>
+        <v>0.1639999141543067</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>2927220</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2873149</v>
+        <v>2876059</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2973077</v>
+        <v>2970289</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8457438601433982</v>
+        <v>0.8457438601433984</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8301213402879779</v>
+        <v>0.8309622697907864</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8589929128560829</v>
+        <v>0.8581874811038599</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4677</v>
@@ -1630,19 +1630,19 @@
         <v>3217607</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3181575</v>
+        <v>3177307</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3253221</v>
+        <v>3250772</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8777895428911514</v>
+        <v>0.8777895428911515</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8679597055408698</v>
+        <v>0.8667953729043759</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8875053157801479</v>
+        <v>0.8868373650777626</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7536</v>
@@ -1651,19 +1651,19 @@
         <v>6144827</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6081582</v>
+        <v>6079728</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6205177</v>
+        <v>6205084</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8622263857570083</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8533519379178053</v>
+        <v>0.8530918744364034</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.870694521165262</v>
+        <v>0.8706815082188113</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>533899</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>488042</v>
+        <v>490830</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>587970</v>
+        <v>585060</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1542561398566017</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1410070871439171</v>
+        <v>0.1418125188961398</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.169878659712022</v>
+        <v>0.1690377302092127</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>590</v>
@@ -1701,19 +1701,19 @@
         <v>447972</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>412358</v>
+        <v>414807</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>484004</v>
+        <v>488272</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1222104571088487</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1124946842198521</v>
+        <v>0.1131626349222374</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1320402944591303</v>
+        <v>0.1332046270956241</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1050</v>
@@ -1722,19 +1722,19 @@
         <v>981871</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>921521</v>
+        <v>921614</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1045116</v>
+        <v>1046970</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1377736142429918</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1293054788347381</v>
+        <v>0.1293184917811885</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1466480620821945</v>
+        <v>0.1469081255635967</v>
       </c>
     </row>
     <row r="18">
